--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2973818.841591739</v>
+        <v>-2976390.528207357</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002516</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077786</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>316.169601257454</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>343.4169297090328</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784825</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>373.248376733617</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>125.0592361379993</v>
+        <v>264.6979105187346</v>
       </c>
       <c r="I11" t="n">
-        <v>35.45111478108501</v>
+        <v>35.451114781085</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.81790519125269</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>169.0820300698417</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.5489389111444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>169.9820427706946</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="12">
@@ -1461,10 +1461,10 @@
         <v>106.5557720301549</v>
       </c>
       <c r="G12" t="n">
-        <v>96.93551735164895</v>
+        <v>96.93551735164898</v>
       </c>
       <c r="H12" t="n">
-        <v>55.42454814858043</v>
+        <v>55.42454814858044</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>97.97911993495507</v>
+        <v>97.97911993495509</v>
       </c>
       <c r="T12" t="n">
-        <v>154.0148842394094</v>
+        <v>154.0148842394095</v>
       </c>
       <c r="U12" t="n">
         <v>187.3032996487766</v>
@@ -1509,7 +1509,7 @@
         <v>194.2871467861963</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976906</v>
+        <v>213.1815427976907</v>
       </c>
       <c r="X12" t="n">
         <v>167.2595448402485</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187083</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353989</v>
+        <v>44.31318324422011</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>107.9205222833402</v>
       </c>
       <c r="F13" t="n">
-        <v>29.63033673042118</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.8892039961243</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5919900612543</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.36263369052342</v>
+        <v>67.36263369052344</v>
       </c>
       <c r="S13" t="n">
-        <v>157.822810462059</v>
+        <v>157.8228104620588</v>
       </c>
       <c r="T13" t="n">
-        <v>182.6456267961471</v>
+        <v>182.6456267961472</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7189525387653</v>
+        <v>247.7189525387649</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
         <v>187.1962150258082</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0712129888658</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>260.6689201272982</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>316.169601257454</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4169297090328</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>368.3626053784825</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4082852902245</v>
+        <v>211.123258889073</v>
       </c>
       <c r="H14" t="n">
-        <v>256.0943240240915</v>
+        <v>256.0943240240916</v>
       </c>
       <c r="I14" t="n">
-        <v>3.063489409697013</v>
+        <v>3.063489409697063</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.67432142494688</v>
+        <v>70.67432142494692</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>165.4045297763912</v>
       </c>
       <c r="U14" t="n">
         <v>212.481731595673</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
         <v>331.2176603152401</v>
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>172.708498988314</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187083</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C16" t="n">
         <v>128.7333807353989</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
         <v>107.9205222833402</v>
@@ -1777,13 +1777,13 @@
         <v>106.9076076597023</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5123678957993</v>
+        <v>89.85931440862646</v>
       </c>
       <c r="H16" t="n">
-        <v>106.2415745510918</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660914</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681825</v>
+        <v>50.41871230681843</v>
       </c>
       <c r="S16" t="n">
-        <v>151.2555849682129</v>
+        <v>151.255584968213</v>
       </c>
       <c r="T16" t="n">
         <v>181.0355089129405</v>
@@ -1822,16 +1822,16 @@
         <v>247.6983978423839</v>
       </c>
       <c r="V16" t="n">
-        <v>213.624202960599</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W16" t="n">
-        <v>248.009557973362</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>95.56463959591956</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0712129888658</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007071</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498654</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621578</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T20" t="n">
         <v>106.2332499115152</v>
@@ -2160,13 +2160,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553993</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2254,7 +2254,7 @@
         <v>68.34108803092322</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621578</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609184</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329982</v>
+        <v>50.01648192329979</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U26" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V26" t="n">
         <v>268.5809786052588</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657072</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851116</v>
@@ -2691,7 +2691,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494243</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C28" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333631</v>
+        <v>89.4441931533363</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169313</v>
+        <v>87.26268278169312</v>
       </c>
       <c r="F28" t="n">
-        <v>86.2497681580552</v>
+        <v>86.24976815805519</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944474</v>
+        <v>85.58373504944473</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517129</v>
       </c>
       <c r="S28" t="n">
         <v>130.5977454665658</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851025</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G36" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1953.568051362043</v>
+        <v>696.0919297493194</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.507999434994</v>
+        <v>696.0919297493194</v>
       </c>
       <c r="D11" t="n">
-        <v>1304.144765841606</v>
+        <v>696.0919297493194</v>
       </c>
       <c r="E11" t="n">
-        <v>957.2589782567243</v>
+        <v>349.2061421644374</v>
       </c>
       <c r="F11" t="n">
-        <v>585.1755384804793</v>
+        <v>349.2061421644374</v>
       </c>
       <c r="G11" t="n">
-        <v>208.1569761232907</v>
+        <v>349.2061421644374</v>
       </c>
       <c r="H11" t="n">
-        <v>81.83451537783685</v>
+        <v>81.83451537783679</v>
       </c>
       <c r="I11" t="n">
         <v>46.02530852825605</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3157454550874</v>
+        <v>164.3157454550864</v>
       </c>
       <c r="K11" t="n">
-        <v>392.3409650219241</v>
+        <v>392.340965021923</v>
       </c>
       <c r="L11" t="n">
-        <v>712.128175121708</v>
+        <v>712.1281751217069</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.622500200641</v>
+        <v>1099.62250020064</v>
       </c>
       <c r="N11" t="n">
-        <v>1498.000696951029</v>
+        <v>1498.000696951028</v>
       </c>
       <c r="O11" t="n">
         <v>1860.842670219302</v>
@@ -5066,25 +5066,25 @@
         <v>2301.265426412802</v>
       </c>
       <c r="S11" t="n">
-        <v>2301.265426412802</v>
+        <v>2210.540269653961</v>
       </c>
       <c r="T11" t="n">
-        <v>2301.265426412802</v>
+        <v>2039.750340290484</v>
       </c>
       <c r="U11" t="n">
-        <v>2301.265426412802</v>
+        <v>1825.05444240044</v>
       </c>
       <c r="V11" t="n">
-        <v>2301.265426412802</v>
+        <v>1532.894020070232</v>
       </c>
       <c r="W11" t="n">
-        <v>2301.265426412802</v>
+        <v>1219.02782981348</v>
       </c>
       <c r="X11" t="n">
-        <v>2301.265426412802</v>
+        <v>1047.328796711769</v>
       </c>
       <c r="Y11" t="n">
-        <v>2301.265426412802</v>
+        <v>696.0919297493194</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673.4739564565923</v>
+        <v>673.4739564565924</v>
       </c>
       <c r="C12" t="n">
-        <v>537.9233921888278</v>
+        <v>537.923392188828</v>
       </c>
       <c r="D12" t="n">
         <v>427.8914475409392</v>
@@ -5118,22 +5118,22 @@
         <v>46.02530852825605</v>
       </c>
       <c r="J12" t="n">
-        <v>97.66043543426385</v>
+        <v>135.7887413938605</v>
       </c>
       <c r="K12" t="n">
-        <v>302.1962223231623</v>
+        <v>325.8158548891396</v>
       </c>
       <c r="L12" t="n">
-        <v>572.2741575464123</v>
+        <v>634.0220960719864</v>
       </c>
       <c r="M12" t="n">
-        <v>930.4188699369578</v>
+        <v>968.5471758965543</v>
       </c>
       <c r="N12" t="n">
-        <v>1326.334784089384</v>
+        <v>1364.463090048981</v>
       </c>
       <c r="O12" t="n">
-        <v>1631.420750904156</v>
+        <v>1669.549056863753</v>
       </c>
       <c r="P12" t="n">
         <v>1895.07437584328</v>
@@ -5145,7 +5145,7 @@
         <v>1995.912882666684</v>
       </c>
       <c r="S12" t="n">
-        <v>1896.944074651577</v>
+        <v>1896.944074651578</v>
       </c>
       <c r="T12" t="n">
         <v>1741.37348451076</v>
@@ -5154,16 +5154,16 @@
         <v>1552.178232340279</v>
       </c>
       <c r="V12" t="n">
-        <v>1355.928589121898</v>
+        <v>1355.928589121899</v>
       </c>
       <c r="W12" t="n">
         <v>1140.593697407059</v>
       </c>
       <c r="X12" t="n">
-        <v>971.6446622148891</v>
+        <v>971.6446622148892</v>
       </c>
       <c r="Y12" t="n">
-        <v>802.7868284632978</v>
+        <v>802.7868284632979</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>666.0934564691877</v>
+        <v>199.796728253065</v>
       </c>
       <c r="C13" t="n">
-        <v>536.0597385546433</v>
+        <v>155.0359370972866</v>
       </c>
       <c r="D13" t="n">
-        <v>424.8455641556702</v>
+        <v>155.0359370972866</v>
       </c>
       <c r="E13" t="n">
-        <v>315.8349355866396</v>
+        <v>46.02530852825605</v>
       </c>
       <c r="F13" t="n">
-        <v>285.9053025256081</v>
+        <v>46.02530852825605</v>
       </c>
       <c r="G13" t="n">
-        <v>156.7242883881088</v>
+        <v>46.02530852825605</v>
       </c>
       <c r="H13" t="n">
         <v>46.02530852825605</v>
@@ -5200,10 +5200,10 @@
         <v>102.900357764739</v>
       </c>
       <c r="K13" t="n">
-        <v>301.6721584138281</v>
+        <v>301.672158413828</v>
       </c>
       <c r="L13" t="n">
-        <v>600.8952645594823</v>
+        <v>600.8952645594821</v>
       </c>
       <c r="M13" t="n">
         <v>924.7005522174887</v>
@@ -5233,16 +5233,16 @@
         <v>1179.816656300887</v>
       </c>
       <c r="V13" t="n">
-        <v>1179.816656300887</v>
+        <v>964.0346331083624</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.816656300887</v>
+        <v>713.5199280847644</v>
       </c>
       <c r="X13" t="n">
-        <v>990.7295704162323</v>
+        <v>524.4328422001097</v>
       </c>
       <c r="Y13" t="n">
-        <v>808.8394562860648</v>
+        <v>342.5427280699421</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2006.092071175901</v>
+        <v>1232.990175986525</v>
       </c>
       <c r="C14" t="n">
-        <v>1742.790131653378</v>
+        <v>1232.990175986525</v>
       </c>
       <c r="D14" t="n">
-        <v>1423.42689805999</v>
+        <v>913.6269423931373</v>
       </c>
       <c r="E14" t="n">
-        <v>1076.541110475108</v>
+        <v>913.6269423931373</v>
       </c>
       <c r="F14" t="n">
-        <v>704.4576706988634</v>
+        <v>541.5435026168923</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2876855572224</v>
+        <v>328.2876855572225</v>
       </c>
       <c r="H14" t="n">
-        <v>69.60655017935213</v>
+        <v>69.60655017935217</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149628</v>
+        <v>3254.217618149627</v>
       </c>
       <c r="T14" t="n">
-        <v>3254.217618149628</v>
+        <v>3087.142335547212</v>
       </c>
       <c r="U14" t="n">
-        <v>3039.589606436827</v>
+        <v>2872.514323834411</v>
       </c>
       <c r="V14" t="n">
-        <v>3039.589606436827</v>
+        <v>2580.353901504203</v>
       </c>
       <c r="W14" t="n">
-        <v>3039.589606436827</v>
+        <v>2266.487711247451</v>
       </c>
       <c r="X14" t="n">
-        <v>2705.02631318911</v>
+        <v>1931.924417999734</v>
       </c>
       <c r="Y14" t="n">
-        <v>2353.78944622666</v>
+        <v>1580.687551037285</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
         <v>767.0908251999817</v>
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5382,25 +5382,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.0822509492962</v>
+        <v>615.5251040504168</v>
       </c>
       <c r="C16" t="n">
-        <v>578.0485330347519</v>
+        <v>485.4913861358723</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0485330347519</v>
+        <v>374.2772117368992</v>
       </c>
       <c r="E16" t="n">
-        <v>469.0379044657213</v>
+        <v>265.2665831678687</v>
       </c>
       <c r="F16" t="n">
-        <v>361.0504219811736</v>
+        <v>157.2791006833212</v>
       </c>
       <c r="G16" t="n">
-        <v>232.2500503692551</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9353286004755</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>149.7630548387156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471886</v>
+        <v>391.8785437471885</v>
       </c>
       <c r="L16" t="n">
-        <v>746.5666481552813</v>
+        <v>746.5666481552812</v>
       </c>
       <c r="M16" t="n">
         <v>1128.851999714427</v>
@@ -5455,31 +5455,31 @@
         <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765266</v>
+        <v>2232.320995765265</v>
       </c>
       <c r="R16" t="n">
-        <v>2181.393003536156</v>
+        <v>2181.393003536155</v>
       </c>
       <c r="S16" t="n">
-        <v>2028.609584376345</v>
+        <v>2028.609584376344</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.745433959234</v>
+        <v>1845.745433959233</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.54503209824</v>
+        <v>1595.545032098239</v>
       </c>
       <c r="V16" t="n">
-        <v>1379.763008905716</v>
+        <v>1379.763008905714</v>
       </c>
       <c r="W16" t="n">
-        <v>1129.248303882118</v>
+        <v>1129.248303882116</v>
       </c>
       <c r="X16" t="n">
-        <v>1032.718364896341</v>
+        <v>940.1612179974614</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.8282507661733</v>
+        <v>758.271103867294</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5498,13 +5498,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218339</v>
@@ -5513,28 +5513,28 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5549,7 +5549,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
         <v>2565.332559049856</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J19" t="n">
-        <v>176.361719815531</v>
+        <v>79.6538467897071</v>
       </c>
       <c r="K19" t="n">
-        <v>350.2377232523193</v>
+        <v>253.5298502264935</v>
       </c>
       <c r="L19" t="n">
-        <v>602.6554402005004</v>
+        <v>505.9475671746747</v>
       </c>
       <c r="M19" t="n">
-        <v>866.7957945255221</v>
+        <v>770.0879214996964</v>
       </c>
       <c r="N19" t="n">
-        <v>1038.104631555369</v>
+        <v>941.3967585295438</v>
       </c>
       <c r="O19" t="n">
-        <v>1272.730853799383</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U19" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464961</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307327</v>
+        <v>581.825297830732</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218339</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052367</v>
@@ -5777,22 +5777,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W20" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y20" t="n">
         <v>1999.070337960651</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E21" t="n">
         <v>458.9189605332749</v>
@@ -5823,19 +5823,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,7 +5844,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
@@ -5859,13 +5859,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W21" t="n">
         <v>1525.370990471662</v>
@@ -5874,7 +5874,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5905,25 +5905,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J22" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K22" t="n">
         <v>274.6725740832013</v>
       </c>
       <c r="L22" t="n">
-        <v>527.0902910313824</v>
+        <v>430.3824180055584</v>
       </c>
       <c r="M22" t="n">
-        <v>770.087921499698</v>
+        <v>694.52277233058</v>
       </c>
       <c r="N22" t="n">
-        <v>1038.104631555369</v>
+        <v>962.5394823862514</v>
       </c>
       <c r="O22" t="n">
-        <v>1272.730853799383</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P22" t="n">
         <v>1371.681856552142</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6105,13 +6105,13 @@
         <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6133,40 +6133,40 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970706</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832014</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L25" t="n">
-        <v>527.0902910313825</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M25" t="n">
-        <v>778.7529633821748</v>
+        <v>770.0879214996976</v>
       </c>
       <c r="N25" t="n">
-        <v>1046.769673437846</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O25" t="n">
-        <v>1281.39589568186</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.346898434618</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R25" t="n">
         <v>1489.975538818983</v>
@@ -6212,10 +6212,10 @@
         <v>1021.962153090403</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H26" t="n">
         <v>77.62710643600128</v>
@@ -6224,10 +6224,10 @@
         <v>95.04551302703186</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083583</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L26" t="n">
         <v>1244.516932122994</v>
@@ -6242,7 +6242,7 @@
         <v>3003.538825931719</v>
       </c>
       <c r="P26" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355124</v>
       </c>
       <c r="Q26" t="n">
         <v>3763.758688177034</v>
@@ -6269,7 +6269,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037986</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425473</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370918</v>
       </c>
       <c r="F27" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639768</v>
       </c>
       <c r="G27" t="n">
         <v>187.1362923965958</v>
@@ -6339,16 +6339,16 @@
         <v>2025.875445435425</v>
       </c>
       <c r="V27" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W27" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X27" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222592</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548332</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029784</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E28" t="n">
         <v>396.6868762810661</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436366</v>
       </c>
       <c r="G28" t="n">
         <v>201.6320312788365</v>
@@ -6382,28 +6382,28 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K28" t="n">
-        <v>443.8960559642677</v>
+        <v>304.9198483735656</v>
       </c>
       <c r="L28" t="n">
-        <v>819.0354214789911</v>
+        <v>680.059213888289</v>
       </c>
       <c r="M28" t="n">
-        <v>1221.772034144767</v>
+        <v>1082.795826554065</v>
       </c>
       <c r="N28" t="n">
-        <v>1489.468387309997</v>
+        <v>1461.713635288674</v>
       </c>
       <c r="O28" t="n">
-        <v>1685.966303594414</v>
+        <v>1819.622801275314</v>
       </c>
       <c r="P28" t="n">
-        <v>1977.153371094301</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q28" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R28" t="n">
         <v>2083.281746631051</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750674</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920181</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1646.478165174435</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.981436128166</v>
+        <v>1347.981436128165</v>
       </c>
       <c r="E29" t="n">
         <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612753</v>
       </c>
       <c r="G29" t="n">
         <v>315.4417372667532</v>
@@ -6470,13 +6470,13 @@
         <v>1244.516932122994</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861145</v>
       </c>
       <c r="N29" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986154</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P29" t="n">
         <v>3456.892759355124</v>
@@ -6494,19 +6494,19 @@
         <v>3684.624844832342</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666659</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883569</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173936</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473337</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058006</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>187.1362923965949</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446242</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600127</v>
@@ -6619,25 +6619,25 @@
         <v>77.62710643600127</v>
       </c>
       <c r="J31" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K31" t="n">
-        <v>338.2197272830617</v>
+        <v>326.9177799555326</v>
       </c>
       <c r="L31" t="n">
-        <v>713.3590927977851</v>
+        <v>702.057145470256</v>
       </c>
       <c r="M31" t="n">
-        <v>992.758722629655</v>
+        <v>928.0691938356811</v>
       </c>
       <c r="N31" t="n">
-        <v>1392.746666401747</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O31" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P31" t="n">
-        <v>2041.842899888274</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q31" t="n">
         <v>2113.343234313042</v>
@@ -6686,37 +6686,37 @@
         <v>1021.962153090402</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612758</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H32" t="n">
         <v>77.62710643600127</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703184</v>
+        <v>95.04551302703157</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522836</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083582</v>
+        <v>734.9031518083573</v>
       </c>
       <c r="L32" t="n">
-        <v>1244.516932122995</v>
+        <v>1244.516932122993</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861145</v>
       </c>
       <c r="N32" t="n">
         <v>2441.986787986155</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355124</v>
       </c>
       <c r="Q32" t="n">
         <v>3763.758688177033</v>
@@ -6762,16 +6762,16 @@
         <v>629.2714055425473</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370918</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639768</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G33" t="n">
-        <v>187.1362923965949</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446242</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600127</v>
@@ -6856,25 +6856,25 @@
         <v>77.62710643600127</v>
       </c>
       <c r="J34" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642677</v>
+        <v>304.9198483735656</v>
       </c>
       <c r="L34" t="n">
-        <v>766.74667426423</v>
+        <v>525.3325811699049</v>
       </c>
       <c r="M34" t="n">
-        <v>992.758722629655</v>
+        <v>928.0691938356811</v>
       </c>
       <c r="N34" t="n">
-        <v>1392.746666401747</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O34" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P34" t="n">
-        <v>2041.842899888274</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313042</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,37 +6947,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,22 +7032,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199864</v>
@@ -7056,7 +7056,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501176</v>
@@ -7081,37 +7081,37 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226768</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155311</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K37" t="n">
-        <v>350.2377232523182</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L37" t="n">
-        <v>602.6554402004995</v>
+        <v>429.0634411854743</v>
       </c>
       <c r="M37" t="n">
-        <v>866.7957945255213</v>
+        <v>693.203795510496</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.104631555369</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799382</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
-        <v>1468.389729577965</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936506</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464961</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830732</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7296,7 +7296,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="40">
@@ -7318,34 +7318,34 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090253</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>623.7981640572066</v>
+        <v>505.947567174676</v>
       </c>
       <c r="M40" t="n">
-        <v>887.9385183822283</v>
+        <v>673.3800484738738</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.247355412076</v>
+        <v>941.3967585295452</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799383</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P40" t="n">
         <v>1371.681856552141</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,10 +7409,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,10 +7421,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7564,28 +7564,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>155.2189959588252</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090252</v>
+        <v>350.2377232523195</v>
       </c>
       <c r="L43" t="n">
-        <v>623.7981640572062</v>
+        <v>602.6554402005006</v>
       </c>
       <c r="M43" t="n">
-        <v>887.9385183822278</v>
+        <v>866.7957945255223</v>
       </c>
       <c r="N43" t="n">
-        <v>1155.955228437899</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O43" t="n">
-        <v>1293.873577656089</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936507</v>
@@ -7594,7 +7594,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363023</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7655,16 +7655,16 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,22 +7676,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7725,10 +7725,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158134</v>
@@ -7804,22 +7804,22 @@
         <v>67.83109325226766</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K46" t="n">
         <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313825</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996977</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N46" t="n">
-        <v>941.3967585295452</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.022980773559</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P46" t="n">
         <v>1371.681856552141</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10042,13 +10042,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>38.18984754460104</v>
+        <v>150.5347521601349</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-6.341823944746892e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.22013291107777</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>53.92684996610592</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,16 +10504,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.6577851630079</v>
+        <v>6.185173543186608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54273168673646</v>
+        <v>14.54273168673645</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>368.3626053784825</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>373.248376733617</v>
       </c>
       <c r="H11" t="n">
-        <v>139.6386743807353</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.81790519125266</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>169.0820300698417</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.5489389111444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>310.7275283541841</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>331.2176603152401</v>
+        <v>161.2356175445455</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.42019749117878</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>77.2772709292811</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.8892039961243</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>109.5919900612543</v>
       </c>
       <c r="I13" t="n">
-        <v>69.1714693182016</v>
+        <v>69.17146931820162</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.624202960599</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>248.009557973362</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66.09053128048035</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>161.2850264011515</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>165.4045297763912</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541841</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>37.65305348717283</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.2415745510918</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.83898004660917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.63157542988863</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1308415.97093518</v>
+        <v>1308415.970935179</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>20481.90846792596</v>
       </c>
       <c r="C2" t="n">
-        <v>20481.90846792595</v>
+        <v>20481.90846792596</v>
       </c>
       <c r="D2" t="n">
         <v>20483.42087952447</v>
@@ -26326,10 +26326,10 @@
         <v>18750.39588079542</v>
       </c>
       <c r="G2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="H2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20526.04424660708</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660708</v>
@@ -26341,19 +26341,19 @@
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161906.3083411357</v>
+        <v>161906.3083411365</v>
       </c>
       <c r="E3" t="n">
-        <v>758343.5965725842</v>
+        <v>758343.5965725834</v>
       </c>
       <c r="F3" t="n">
-        <v>238556.5016603823</v>
+        <v>238556.501660382</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190083</v>
+        <v>47337.02389190092</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698658</v>
+        <v>36352.13055698652</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190083</v>
+        <v>47337.02389190092</v>
       </c>
       <c r="M3" t="n">
-        <v>139558.1400101343</v>
+        <v>139558.1400101342</v>
       </c>
       <c r="N3" t="n">
-        <v>62722.15499356522</v>
+        <v>62722.15499356516</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,19 +26421,19 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401722.4498602138</v>
+        <v>401722.4498602135</v>
       </c>
       <c r="E4" t="n">
-        <v>71940.62760287938</v>
+        <v>71940.62760287934</v>
       </c>
       <c r="F4" t="n">
         <v>54179.49125338277</v>
       </c>
       <c r="G4" t="n">
+        <v>93774.13782657715</v>
+      </c>
+      <c r="H4" t="n">
         <v>93774.13782657709</v>
-      </c>
-      <c r="H4" t="n">
-        <v>93774.13782657706</v>
       </c>
       <c r="I4" t="n">
         <v>93774.13782657706</v>
@@ -26442,16 +26442,16 @@
         <v>95033.13778715182</v>
       </c>
       <c r="K4" t="n">
-        <v>95033.13778715183</v>
+        <v>95033.13778715185</v>
       </c>
       <c r="L4" t="n">
-        <v>95033.13778715189</v>
+        <v>95033.13778715188</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657708</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37748.92160594848</v>
+        <v>37748.9216059485</v>
       </c>
       <c r="E5" t="n">
         <v>57418.5470976483</v>
       </c>
       <c r="F5" t="n">
-        <v>77544.12697928959</v>
+        <v>77544.12697928958</v>
       </c>
       <c r="G5" t="n">
         <v>82518.59730624984</v>
@@ -26488,7 +26488,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
         <v>87728.20329125514</v>
@@ -26500,13 +26500,13 @@
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="C6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="D6" t="n">
-        <v>-580894.2589277736</v>
+        <v>-580898.5212644823</v>
       </c>
       <c r="E6" t="n">
-        <v>-871302.6686739217</v>
+        <v>-871715.2628386625</v>
       </c>
       <c r="F6" t="n">
-        <v>-351529.7240122592</v>
+        <v>-351707.28884884</v>
       </c>
       <c r="G6" t="n">
-        <v>-203103.7147781207</v>
+        <v>-203103.7147781208</v>
       </c>
       <c r="H6" t="n">
         <v>-155766.6908862198</v>
@@ -26543,22 +26543,22 @@
         <v>-155766.6908862198</v>
       </c>
       <c r="J6" t="n">
-        <v>-198587.4273887865</v>
+        <v>-198587.4273887864</v>
       </c>
       <c r="K6" t="n">
         <v>-162235.2968317999</v>
       </c>
       <c r="L6" t="n">
-        <v>-209572.3207237008</v>
+        <v>-209572.3207237009</v>
       </c>
       <c r="M6" t="n">
-        <v>-295324.8308963541</v>
+        <v>-295324.830896354</v>
       </c>
       <c r="N6" t="n">
-        <v>-218488.8458797851</v>
+        <v>-218488.845879785</v>
       </c>
       <c r="O6" t="n">
-        <v>-155766.6908862197</v>
+        <v>-155766.6908862198</v>
       </c>
       <c r="P6" t="n">
         <v>-155766.6908862198</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H2" t="n">
         <v>97.68472022810501</v>
@@ -26707,7 +26707,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K2" t="n">
         <v>59.17127986487607</v>
@@ -26722,7 +26722,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810502</v>
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141503</v>
+        <v>189.0514498141512</v>
       </c>
       <c r="E3" t="n">
-        <v>880.8039540494226</v>
+        <v>880.8039540494227</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26799,7 +26799,7 @@
         <v>575.3163566032006</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022924</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>970.338830450016</v>
@@ -26820,10 +26820,10 @@
         <v>970.3388304500158</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487615</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322895</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141503</v>
+        <v>189.0514498141512</v>
       </c>
       <c r="E3" t="n">
-        <v>691.7525042352723</v>
+        <v>691.7525042352715</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9727465438755</v>
+        <v>208.9727465438751</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>575.3163566032006</v>
       </c>
       <c r="F4" t="n">
-        <v>256.0850987990921</v>
+        <v>256.0850987990918</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477235</v>
+        <v>138.9373750477233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>436.3789815554774</v>
+        <v>436.3789815554771</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990921</v>
+        <v>256.0850987990918</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487615</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>575.3163566032006</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990921</v>
+        <v>256.0850987990918</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>331.69139242568</v>
       </c>
       <c r="I8" t="n">
-        <v>181.1757648710691</v>
+        <v>181.175764871069</v>
       </c>
       <c r="J8" t="n">
-        <v>116.5413598486411</v>
+        <v>116.5413598486408</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4142596508229</v>
+        <v>123.4142596508224</v>
       </c>
       <c r="L8" t="n">
-        <v>115.8317952049761</v>
+        <v>115.8317952049755</v>
       </c>
       <c r="M8" t="n">
-        <v>96.89585981147809</v>
+        <v>96.89585981147746</v>
       </c>
       <c r="N8" t="n">
-        <v>93.80332362085878</v>
+        <v>93.80332362085812</v>
       </c>
       <c r="O8" t="n">
-        <v>102.0457794020931</v>
+        <v>102.0457794020925</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9432076242662</v>
+        <v>121.9432076242657</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2336104729708</v>
+        <v>140.2336104729704</v>
       </c>
       <c r="R8" t="n">
-        <v>167.8448216959889</v>
+        <v>167.8448216959887</v>
       </c>
       <c r="S8" t="n">
-        <v>191.7014367716124</v>
+        <v>191.7014367716123</v>
       </c>
       <c r="T8" t="n">
         <v>219.7689240503165</v>
@@ -27950,37 +27950,37 @@
         <v>108.308167892244</v>
       </c>
       <c r="I9" t="n">
-        <v>85.5218716882917</v>
+        <v>85.52187168829163</v>
       </c>
       <c r="J9" t="n">
-        <v>88.41916175679299</v>
+        <v>88.41916175679282</v>
       </c>
       <c r="K9" t="n">
-        <v>72.1781632403253</v>
+        <v>72.17816324032498</v>
       </c>
       <c r="L9" t="n">
-        <v>50.2620022039354</v>
+        <v>50.26200220393497</v>
       </c>
       <c r="M9" t="n">
-        <v>39.10099377330643</v>
+        <v>39.10099377330593</v>
       </c>
       <c r="N9" t="n">
-        <v>25.58169394626445</v>
+        <v>25.58169394626394</v>
       </c>
       <c r="O9" t="n">
-        <v>45.84648974568773</v>
+        <v>45.84648974568726</v>
       </c>
       <c r="P9" t="n">
-        <v>56.32419965953329</v>
+        <v>56.32419965953292</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.07466658233255</v>
+        <v>88.0746665823323</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4322178925572</v>
+        <v>120.4322178925571</v>
       </c>
       <c r="S9" t="n">
-        <v>164.1300306324895</v>
+        <v>164.1300306324894</v>
       </c>
       <c r="T9" t="n">
         <v>198.5256882950178</v>
@@ -28029,31 +28029,31 @@
         <v>159.1961509022225</v>
       </c>
       <c r="I10" t="n">
-        <v>145.1983077799598</v>
+        <v>145.1983077799597</v>
       </c>
       <c r="J10" t="n">
-        <v>102.8929111901396</v>
+        <v>102.8929111901395</v>
       </c>
       <c r="K10" t="n">
-        <v>89.40542983242325</v>
+        <v>89.40542983242307</v>
       </c>
       <c r="L10" t="n">
-        <v>84.20029250647411</v>
+        <v>84.20029250647389</v>
       </c>
       <c r="M10" t="n">
-        <v>85.48620773210681</v>
+        <v>85.48620773210655</v>
       </c>
       <c r="N10" t="n">
-        <v>75.51664192881363</v>
+        <v>75.51664192881337</v>
       </c>
       <c r="O10" t="n">
-        <v>90.27011317790165</v>
+        <v>90.27011317790142</v>
       </c>
       <c r="P10" t="n">
-        <v>96.496192765091</v>
+        <v>96.4961927650908</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.9582327075092</v>
+        <v>122.958232707509</v>
       </c>
       <c r="R10" t="n">
         <v>161.9647279217467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I12" t="n">
-        <v>34.29303057275501</v>
+        <v>34.293030572755</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K12" t="n">
-        <v>38.51344036322897</v>
+        <v>23.85821471310842</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M12" t="n">
-        <v>23.85821471310879</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.51344036322897</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.0506287420429</v>
+        <v>28.05062874204289</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292601</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>76.32843350415959</v>
+        <v>76.32843350415769</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>97.68472022810501</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28880,13 +28880,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28980,16 +28980,16 @@
         <v>97.68472022810501</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>97.68472022810501</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>97.68472022810501</v>
-      </c>
-      <c r="M22" t="n">
-        <v>76.32843350415945</v>
       </c>
       <c r="N22" t="n">
         <v>97.68472022810501</v>
@@ -28998,7 +28998,7 @@
         <v>97.68472022810501</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>76.32843350415968</v>
       </c>
       <c r="Q22" t="n">
         <v>97.68472022810501</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29214,19 +29214,19 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I25" t="n">
+        <v>96.35242040983812</v>
+      </c>
+      <c r="J25" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>85.08100106221667</v>
+        <v>77.66073332242578</v>
       </c>
       <c r="N25" t="n">
         <v>97.68472022810502</v>
@@ -29235,13 +29235,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="R25" t="n">
-        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>97.68472022810502</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487583</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="27">
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="29">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -30004,13 +30004,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30162,13 +30162,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76.32843350415834</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>97.68472022810502</v>
@@ -30177,7 +30177,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
         <v>97.68472022810502</v>
@@ -30186,7 +30186,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>77.66073332242584</v>
       </c>
       <c r="R37" t="n">
         <v>97.68472022810502</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30399,28 +30399,28 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>77.66073332242598</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="L40" t="n">
+      <c r="O40" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>76.32843350415914</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>97.68472022810502</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242667</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>76.32843350416053</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30876,25 +30876,25 @@
         <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="M46" t="n">
-        <v>76.32843350415899</v>
-      </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350415916</v>
       </c>
       <c r="Q46" t="n">
         <v>97.68472022810502</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7600058283985935</v>
+        <v>0.7600058283985972</v>
       </c>
       <c r="H8" t="n">
-        <v>7.783409690087098</v>
+        <v>7.783409690087136</v>
       </c>
       <c r="I8" t="n">
-        <v>29.30012469933681</v>
+        <v>29.30012469933695</v>
       </c>
       <c r="J8" t="n">
-        <v>64.50454467804519</v>
+        <v>64.50454467804551</v>
       </c>
       <c r="K8" t="n">
-        <v>96.67559139415768</v>
+        <v>96.67559139415813</v>
       </c>
       <c r="L8" t="n">
-        <v>119.9346197650111</v>
+        <v>119.9346197650117</v>
       </c>
       <c r="M8" t="n">
-        <v>133.4503734157946</v>
+        <v>133.4503734157953</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6097399757321</v>
+        <v>135.6097399757328</v>
       </c>
       <c r="O8" t="n">
-        <v>128.0524320195936</v>
+        <v>128.0524320195942</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2897881310033</v>
+        <v>109.2897881310039</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.07207940147867</v>
+        <v>82.07207940147907</v>
       </c>
       <c r="R8" t="n">
-        <v>47.7407161181432</v>
+        <v>47.74071611814342</v>
       </c>
       <c r="S8" t="n">
-        <v>17.31863281463297</v>
+        <v>17.31863281463305</v>
       </c>
       <c r="T8" t="n">
-        <v>3.326925513814845</v>
+        <v>3.326925513814861</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06080046627188747</v>
+        <v>0.06080046627188777</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4066389675247761</v>
+        <v>0.4066389675247781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.927276344252443</v>
+        <v>3.927276344252463</v>
       </c>
       <c r="I9" t="n">
-        <v>14.0005083117083</v>
+        <v>14.00050831170837</v>
       </c>
       <c r="J9" t="n">
-        <v>38.4184649098737</v>
+        <v>38.41846490987388</v>
       </c>
       <c r="K9" t="n">
-        <v>65.66327573403369</v>
+        <v>65.66327573403402</v>
       </c>
       <c r="L9" t="n">
-        <v>88.29237757593879</v>
+        <v>88.29237757593921</v>
       </c>
       <c r="M9" t="n">
-        <v>103.0330401487119</v>
+        <v>103.0330401487124</v>
       </c>
       <c r="N9" t="n">
-        <v>105.7600181370689</v>
+        <v>105.7600181370694</v>
       </c>
       <c r="O9" t="n">
-        <v>96.7497546987567</v>
+        <v>96.74975469875717</v>
       </c>
       <c r="P9" t="n">
-        <v>77.65020775479695</v>
+        <v>77.65020775479732</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.90710750368897</v>
+        <v>51.90710750368922</v>
       </c>
       <c r="R9" t="n">
-        <v>25.24728607140672</v>
+        <v>25.24728607140684</v>
       </c>
       <c r="S9" t="n">
-        <v>7.553140471348359</v>
+        <v>7.553140471348394</v>
       </c>
       <c r="T9" t="n">
-        <v>1.639040399803812</v>
+        <v>1.63904039980382</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02675256365294581</v>
+        <v>0.02675256365294594</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3409124504845333</v>
+        <v>0.3409124504845349</v>
       </c>
       <c r="H10" t="n">
-        <v>3.031021605217034</v>
+        <v>3.031021605217049</v>
       </c>
       <c r="I10" t="n">
-        <v>10.25216714729851</v>
+        <v>10.25216714729856</v>
       </c>
       <c r="J10" t="n">
-        <v>24.1025102492565</v>
+        <v>24.10251024925662</v>
       </c>
       <c r="K10" t="n">
-        <v>39.60782833811213</v>
+        <v>39.60782833811232</v>
       </c>
       <c r="L10" t="n">
-        <v>50.68438377476416</v>
+        <v>50.68438377476441</v>
       </c>
       <c r="M10" t="n">
-        <v>53.43957621549824</v>
+        <v>53.4395762154985</v>
       </c>
       <c r="N10" t="n">
-        <v>52.16890253641957</v>
+        <v>52.16890253641982</v>
       </c>
       <c r="O10" t="n">
-        <v>48.18642527394114</v>
+        <v>48.18642527394137</v>
       </c>
       <c r="P10" t="n">
-        <v>41.23181128405663</v>
+        <v>41.23181128405682</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.54676892193669</v>
+        <v>28.54676892193683</v>
       </c>
       <c r="R10" t="n">
-        <v>15.32866345542274</v>
+        <v>15.32866345542281</v>
       </c>
       <c r="S10" t="n">
-        <v>5.941174250716819</v>
+        <v>5.941174250716847</v>
       </c>
       <c r="T10" t="n">
-        <v>1.456625924797551</v>
+        <v>1.456625924797558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01859522457188366</v>
+        <v>0.01859522457188374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,25 +31750,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.540920418289133</v>
+        <v>3.540920418289134</v>
       </c>
       <c r="H11" t="n">
-        <v>36.26345123380359</v>
+        <v>36.2634512338036</v>
       </c>
       <c r="I11" t="n">
-        <v>136.5113344260919</v>
+        <v>136.511334426092</v>
       </c>
       <c r="J11" t="n">
         <v>300.5311943517676</v>
       </c>
       <c r="K11" t="n">
-        <v>450.4183556579467</v>
+        <v>450.4183556579468</v>
       </c>
       <c r="L11" t="n">
-        <v>558.7837989091629</v>
+        <v>558.783798909163</v>
       </c>
       <c r="M11" t="n">
-        <v>621.7546423979122</v>
+        <v>621.7546423979123</v>
       </c>
       <c r="N11" t="n">
         <v>631.8152825363763</v>
@@ -31777,7 +31777,7 @@
         <v>596.6052551270137</v>
       </c>
       <c r="P11" t="n">
-        <v>509.1887823005006</v>
+        <v>509.1887823005007</v>
       </c>
       <c r="Q11" t="n">
         <v>382.3795698205209</v>
@@ -31792,7 +31792,7 @@
         <v>15.50037913106069</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2832736334631306</v>
+        <v>0.2832736334631307</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31829,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89455944833272</v>
+        <v>1.894559448332721</v>
       </c>
       <c r="H12" t="n">
         <v>18.29745572468707</v>
       </c>
       <c r="I12" t="n">
-        <v>65.22934942724498</v>
+        <v>65.229349427245</v>
       </c>
       <c r="J12" t="n">
         <v>178.994320511119</v>
       </c>
       <c r="K12" t="n">
-        <v>305.9298035494112</v>
+        <v>305.9298035494113</v>
       </c>
       <c r="L12" t="n">
         <v>411.3603749548743</v>
@@ -31850,19 +31850,19 @@
         <v>480.0381549569353</v>
       </c>
       <c r="N12" t="n">
-        <v>492.743336520535</v>
+        <v>492.7433365205351</v>
       </c>
       <c r="O12" t="n">
-        <v>450.7638876916889</v>
+        <v>450.763887691689</v>
       </c>
       <c r="P12" t="n">
-        <v>361.7777599189034</v>
+        <v>361.7777599189035</v>
       </c>
       <c r="Q12" t="n">
         <v>241.8388516854189</v>
       </c>
       <c r="R12" t="n">
-        <v>117.628875221921</v>
+        <v>117.6288752219211</v>
       </c>
       <c r="S12" t="n">
         <v>35.1906108056538</v>
@@ -31923,7 +31923,7 @@
         <v>184.5356480778954</v>
       </c>
       <c r="L13" t="n">
-        <v>236.1420961397419</v>
+        <v>236.142096139742</v>
       </c>
       <c r="M13" t="n">
         <v>248.978730814331</v>
@@ -31947,7 +31947,7 @@
         <v>27.6803472116843</v>
       </c>
       <c r="T13" t="n">
-        <v>6.786522268905385</v>
+        <v>6.786522268905386</v>
       </c>
       <c r="U13" t="n">
         <v>0.08663645449666461</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32105,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32154,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32172,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32579,7 +32579,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32628,16 +32628,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32646,19 +32646,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35413,10 +35413,10 @@
         <v>230.3285046129662</v>
       </c>
       <c r="L11" t="n">
-        <v>323.0173839391757</v>
+        <v>323.0173839391758</v>
       </c>
       <c r="M11" t="n">
-        <v>391.4084091706395</v>
+        <v>391.4084091706396</v>
       </c>
       <c r="N11" t="n">
         <v>402.4022189397854</v>
@@ -35431,7 +35431,7 @@
         <v>160.0738799460715</v>
       </c>
       <c r="R11" t="n">
-        <v>6.841804411222853</v>
+        <v>6.841804411222881</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.15669384445232</v>
+        <v>90.67013420768129</v>
       </c>
       <c r="K12" t="n">
-        <v>206.6018049382812</v>
+        <v>191.9465792881607</v>
       </c>
       <c r="L12" t="n">
-        <v>272.8059951750001</v>
+        <v>311.3194355382291</v>
       </c>
       <c r="M12" t="n">
-        <v>361.7623357480257</v>
+        <v>337.904121034917</v>
       </c>
       <c r="N12" t="n">
         <v>399.9150648004307</v>
@@ -35504,10 +35504,10 @@
         <v>308.1676432472445</v>
       </c>
       <c r="P12" t="n">
-        <v>266.3167928678022</v>
+        <v>227.8033525045732</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.8570775993973</v>
+        <v>101.8570775993974</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>287.6025006962921</v>
       </c>
       <c r="P13" t="n">
-        <v>227.8938980653932</v>
+        <v>227.8938980653931</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.35279417299738</v>
+        <v>85.35279417299739</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629516</v>
+        <v>84.09185697629511</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5610999075485</v>
+        <v>244.5610999075484</v>
       </c>
       <c r="L16" t="n">
-        <v>358.270812533427</v>
+        <v>358.2708125334269</v>
       </c>
       <c r="M16" t="n">
         <v>386.1468197567127</v>
       </c>
       <c r="N16" t="n">
-        <v>383.370386530769</v>
+        <v>383.3703865307689</v>
       </c>
       <c r="O16" t="n">
-        <v>340.8665705858687</v>
+        <v>340.8665705858686</v>
       </c>
       <c r="P16" t="n">
         <v>273.4705115083393</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.9076789011226</v>
+        <v>116.9076789011225</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.33229981826689</v>
+        <v>1.332299818266975</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K19" t="n">
-        <v>175.6323267038265</v>
+        <v>175.6323267038246</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N19" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014211</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057635</v>
+        <v>8.75256755805772</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266897</v>
+        <v>1.33229981826689</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>245.4521519881976</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>176.2789413352289</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,19 +36510,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K25" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>254.2047195462548</v>
+        <v>246.7844518064639</v>
       </c>
       <c r="N25" t="n">
         <v>270.7239495511833</v>
@@ -36531,13 +36531,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>598.0923956951026</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777871</v>
       </c>
       <c r="O26" t="n">
         <v>567.2242807530951</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779422</v>
+        <v>71.11345515521892</v>
       </c>
       <c r="K28" t="n">
-        <v>265.2189394091956</v>
+        <v>158.475173064543</v>
       </c>
       <c r="L28" t="n">
-        <v>378.9286520350741</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
         <v>406.8046592583598</v>
       </c>
       <c r="N28" t="n">
-        <v>270.4003567325553</v>
+        <v>382.7452613480892</v>
       </c>
       <c r="O28" t="n">
-        <v>198.4827437216333</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>294.1283510099864</v>
+        <v>159.1217876959453</v>
       </c>
       <c r="Q28" t="n">
         <v>137.5655184027697</v>
@@ -36838,7 +36838,7 @@
         <v>514.7613942572079</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951017</v>
       </c>
       <c r="N29" t="n">
         <v>611.4731152777874</v>
@@ -36847,7 +36847,7 @@
         <v>567.2242807530952</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842467</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>104.7496964779423</v>
+        <v>71.11345515521893</v>
       </c>
       <c r="K31" t="n">
-        <v>158.4751730645431</v>
+        <v>180.6953059756208</v>
       </c>
       <c r="L31" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M31" t="n">
-        <v>282.2218483150201</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
@@ -37008,7 +37008,7 @@
         <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.22256002501824</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.7496964779423</v>
+        <v>71.11345515521893</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091956</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L34" t="n">
-        <v>326.1117356565276</v>
+        <v>222.6391240367063</v>
       </c>
       <c r="M34" t="n">
-        <v>228.2949983489142</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
@@ -37245,7 +37245,7 @@
         <v>294.1283510099864</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501824</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266925</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>175.6323267038254</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>90.71201348256801</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057692</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,28 +37695,28 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>234.9434039510696</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>215.6398973609164</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882472</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>89.60290861276953</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
@@ -37953,13 +37953,13 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>176.2789413352298</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,25 +38172,25 @@
         <v>1.332299818266911</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>245.4521519881971</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591743</v>
+        <v>176.2789413352284</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
